--- a/data/trans_orig/P04B3_2_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P04B3_2_2023-Provincia-trans_orig.xlsx
@@ -744,16 +744,16 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>6907</v>
+        <v>7439</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.006225946204016267</v>
+        <v>0.006225946204016268</v>
       </c>
       <c r="H4" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02166409504490598</v>
+        <v>0.02333072894969867</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>5</v>
@@ -762,19 +762,19 @@
         <v>2649</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>997</v>
+        <v>979</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>6002</v>
+        <v>5865</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.008381443637331778</v>
+        <v>0.00838144363733178</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.003154442023127535</v>
+        <v>0.003097261248338595</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0189911481653016</v>
+        <v>0.01855650928611872</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>7</v>
@@ -783,19 +783,19 @@
         <v>4634</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1935</v>
+        <v>1795</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>10272</v>
+        <v>10105</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.007298968015402546</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.003048173922401473</v>
+        <v>0.00282779794468884</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0161783802402314</v>
+        <v>0.01591499581590355</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>17506</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>10827</v>
+        <v>10779</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>26471</v>
+        <v>25761</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.05490544127929365</v>
+        <v>0.05490544127929367</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.03395680783231073</v>
+        <v>0.03380511478041142</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.08302125854720081</v>
+        <v>0.08079374094184462</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>30</v>
@@ -833,19 +833,19 @@
         <v>18960</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>12767</v>
+        <v>12768</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>29522</v>
+        <v>29355</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.05998924059542504</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.0403932173667407</v>
+        <v>0.04039693923984589</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.09340746842151025</v>
+        <v>0.09287659351930126</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>50</v>
@@ -854,19 +854,19 @@
         <v>36467</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>27711</v>
+        <v>27296</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>49623</v>
+        <v>49782</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.0574361924027264</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.04364558977478315</v>
+        <v>0.04299233752364646</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.07815740258319874</v>
+        <v>0.07840869052615392</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>32752</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>23561</v>
+        <v>22959</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>44641</v>
+        <v>44738</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1027210641845611</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.07389467449930041</v>
+        <v>0.07200779375806272</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1400092494403874</v>
+        <v>0.1403121509685875</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>50</v>
@@ -904,19 +904,19 @@
         <v>30976</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>22703</v>
+        <v>23113</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>41439</v>
+        <v>43156</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.09800671320477466</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.07182989867442634</v>
+        <v>0.07312782902863149</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1311120030821109</v>
+        <v>0.1365422742988935</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>84</v>
@@ -925,19 +925,19 @@
         <v>63728</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>50607</v>
+        <v>51218</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>79874</v>
+        <v>79738</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1003742270463419</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.07970794125028134</v>
+        <v>0.08066985733936684</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1258041028402133</v>
+        <v>0.1255902646037454</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>266601</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>251837</v>
+        <v>252021</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>277918</v>
+        <v>278903</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.8361475483321289</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.7898426387102198</v>
+        <v>0.7904183001310964</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.8716402233450087</v>
+        <v>0.8747297567810561</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>453</v>
@@ -975,19 +975,19 @@
         <v>263476</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>249651</v>
+        <v>250769</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>273592</v>
+        <v>274155</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.8336226025624686</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.7898819561502153</v>
+        <v>0.7934186710322362</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.8656292908685164</v>
+        <v>0.8674130733233685</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>728</v>
@@ -996,19 +996,19 @@
         <v>530077</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>510090</v>
+        <v>512521</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>546022</v>
+        <v>546820</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.8348906125355292</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.803410613990614</v>
+        <v>0.8072396182577385</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.8600052413128693</v>
+        <v>0.8612618415876937</v>
       </c>
     </row>
     <row r="8">
@@ -1100,19 +1100,19 @@
         <v>7938</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>2689</v>
+        <v>2282</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>21121</v>
+        <v>19686</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.01496000341257701</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.005067554956157962</v>
+        <v>0.004301301104918755</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.03980319926185019</v>
+        <v>0.03709881421664291</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>14</v>
@@ -1121,19 +1121,19 @@
         <v>9957</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>6098</v>
+        <v>5436</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>17043</v>
+        <v>16339</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.01822051590535848</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.01115908421448217</v>
+        <v>0.009947828204737916</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.03118521997483297</v>
+        <v>0.02989792766321463</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>19</v>
@@ -1142,19 +1142,19 @@
         <v>17896</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>10655</v>
+        <v>10955</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>30790</v>
+        <v>30476</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.0166142446494962</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.009891529486716975</v>
+        <v>0.01017042552284328</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.02858506943147158</v>
+        <v>0.0282936012515363</v>
       </c>
     </row>
     <row r="10">
@@ -1171,19 +1171,19 @@
         <v>49109</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>34450</v>
+        <v>33323</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>70401</v>
+        <v>67410</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.09254551520372303</v>
+        <v>0.09254551520372305</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.06492012972110776</v>
+        <v>0.06279605832971022</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1326709404302794</v>
+        <v>0.1270343357684131</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>74</v>
@@ -1192,19 +1192,19 @@
         <v>53098</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>41842</v>
+        <v>41957</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>65956</v>
+        <v>65549</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.09716196845906214</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.07656439049347014</v>
+        <v>0.07677555226568626</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1206891958670362</v>
+        <v>0.1199450895898596</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>109</v>
@@ -1213,19 +1213,19 @@
         <v>102207</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>84929</v>
+        <v>82880</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>126312</v>
+        <v>123093</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.09488770139690553</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.07884648327414703</v>
+        <v>0.07694470263158985</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1172657041662442</v>
+        <v>0.114277741493985</v>
       </c>
     </row>
     <row r="11">
@@ -1242,19 +1242,19 @@
         <v>213680</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>187400</v>
+        <v>186203</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>243939</v>
+        <v>242126</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.4026776204711778</v>
+        <v>0.4026776204711777</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.353153829367339</v>
+        <v>0.3508977028046555</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4597011684952436</v>
+        <v>0.4562848379681025</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>248</v>
@@ -1263,19 +1263,19 @@
         <v>194683</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>174256</v>
+        <v>172472</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>214331</v>
+        <v>214775</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3562406339254377</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3188621884741721</v>
+        <v>0.3155971229289573</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3921933037601312</v>
+        <v>0.3930050086266465</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>397</v>
@@ -1284,19 +1284,19 @@
         <v>408363</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>374880</v>
+        <v>374253</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>445740</v>
+        <v>445053</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3791175273164072</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3480324574498687</v>
+        <v>0.3474504431829065</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.4138174443119323</v>
+        <v>0.4131797512371576</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>259920</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>231954</v>
+        <v>230838</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>287165</v>
+        <v>289636</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.4898168609125221</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.4371148279801654</v>
+        <v>0.4350131688281774</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.5411607094396704</v>
+        <v>0.545817282502416</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>381</v>
@@ -1334,19 +1334,19 @@
         <v>288755</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>269582</v>
+        <v>266343</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>311155</v>
+        <v>310627</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.5283768817101416</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.4932944248697721</v>
+        <v>0.4873662213211654</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.5693660100385434</v>
+        <v>0.5684001246998912</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>574</v>
@@ -1355,19 +1355,19 @@
         <v>548675</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>509533</v>
+        <v>510576</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>581908</v>
+        <v>582394</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.5093805266371911</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.4730419943707746</v>
+        <v>0.4740107348911629</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.5402334420772262</v>
+        <v>0.5406849259740699</v>
       </c>
     </row>
     <row r="13">
@@ -1459,19 +1459,19 @@
         <v>38218</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>28038</v>
+        <v>28293</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>49980</v>
+        <v>50829</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1209461604672336</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.08873057112821099</v>
+        <v>0.08953818912418103</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1581677546622371</v>
+        <v>0.1608551359661915</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>53</v>
@@ -1480,19 +1480,19 @@
         <v>34767</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>25881</v>
+        <v>26014</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>44686</v>
+        <v>45387</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.09755558112154852</v>
+        <v>0.09755558112154851</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.0726211695255717</v>
+        <v>0.07299447839079128</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1253870727899746</v>
+        <v>0.1273562916962252</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>95</v>
@@ -1501,19 +1501,19 @@
         <v>72985</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>59646</v>
+        <v>58787</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>89489</v>
+        <v>89264</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.1085483632774555</v>
+        <v>0.1085483632774554</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.08870960487784198</v>
+        <v>0.08743204859217305</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1330935285729847</v>
+        <v>0.1327591235414607</v>
       </c>
     </row>
     <row r="15">
@@ -1530,19 +1530,19 @@
         <v>38288</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>29154</v>
+        <v>29323</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>50462</v>
+        <v>51186</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.1211673888855135</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.09226082609041461</v>
+        <v>0.09279496681956528</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1596933693918208</v>
+        <v>0.1619847346602231</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>90</v>
@@ -1551,19 +1551,19 @@
         <v>60035</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>48388</v>
+        <v>49139</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>72850</v>
+        <v>71306</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>0.1684581983813735</v>
+        <v>0.1684581983813734</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.1357760751917564</v>
+        <v>0.1378831984614269</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.2044164624523267</v>
+        <v>0.2000831639510365</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>138</v>
@@ -1572,19 +1572,19 @@
         <v>98323</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>82329</v>
+        <v>83921</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>116006</v>
+        <v>116043</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.1462331154075144</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.1224456095361473</v>
+        <v>0.124812365126799</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.172531643229757</v>
+        <v>0.1725870653550366</v>
       </c>
     </row>
     <row r="16">
@@ -1601,19 +1601,19 @@
         <v>56283</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>45000</v>
+        <v>43371</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>70970</v>
+        <v>69632</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1781139617033514</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1424083209359752</v>
+        <v>0.1372530593859472</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2245923369079558</v>
+        <v>0.2203607655985737</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>71</v>
@@ -1622,19 +1622,19 @@
         <v>46205</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>36096</v>
+        <v>36077</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>56351</v>
+        <v>57721</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1296507365338397</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1012857533303624</v>
+        <v>0.1012329383957136</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.158119907095139</v>
+        <v>0.1619654743563588</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>137</v>
@@ -1643,19 +1643,19 @@
         <v>102488</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>85053</v>
+        <v>88288</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>120256</v>
+        <v>121634</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1524268152699735</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1264964778077929</v>
+        <v>0.1313071829136882</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1788527205615206</v>
+        <v>0.1809014016909431</v>
       </c>
     </row>
     <row r="17">
@@ -1672,19 +1672,19 @@
         <v>183204</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>167302</v>
+        <v>167227</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>200086</v>
+        <v>198800</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.5797724889439014</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5294481046651086</v>
+        <v>0.5292120723130977</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6331969720484606</v>
+        <v>0.6291267915969154</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>322</v>
@@ -1693,19 +1693,19 @@
         <v>215374</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>199761</v>
+        <v>200679</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>230452</v>
+        <v>229020</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.6043354839632383</v>
+        <v>0.6043354839632382</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5605277234099335</v>
+        <v>0.5631022066376031</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6466439583589191</v>
+        <v>0.6426274129764099</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>526</v>
@@ -1714,19 +1714,19 @@
         <v>398578</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>377016</v>
+        <v>375251</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>420127</v>
+        <v>420784</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.5927917060450566</v>
+        <v>0.5927917060450565</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.5607223068918905</v>
+        <v>0.5580979303041955</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6248398683142956</v>
+        <v>0.6258178301444677</v>
       </c>
     </row>
     <row r="18">
@@ -1818,19 +1818,19 @@
         <v>24994</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>15098</v>
+        <v>14500</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>40057</v>
+        <v>41536</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.06698197059570497</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.04046219676212524</v>
+        <v>0.03885775690616407</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1073503727259665</v>
+        <v>0.1113141004253195</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>55</v>
@@ -1839,19 +1839,19 @@
         <v>38367</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>27984</v>
+        <v>28289</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>51772</v>
+        <v>50717</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.09113548554933064</v>
+        <v>0.09113548554933065</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.06647089765812549</v>
+        <v>0.06719475389295383</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1229765949262388</v>
+        <v>0.1204689414718399</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>78</v>
@@ -1860,19 +1860,19 @@
         <v>63361</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>49101</v>
+        <v>47642</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>82068</v>
+        <v>81596</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.0797863651395839</v>
+        <v>0.07978636513958387</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.06182969517242434</v>
+        <v>0.05999266051230751</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1033425563559261</v>
+        <v>0.1027481226120742</v>
       </c>
     </row>
     <row r="20">
@@ -1889,19 +1889,19 @@
         <v>51742</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>37782</v>
+        <v>38010</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>72599</v>
+        <v>72610</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1386646470148908</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1012521100189751</v>
+        <v>0.1018633476234121</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1945609156269771</v>
+        <v>0.1945893727596256</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>77</v>
@@ -1910,19 +1910,19 @@
         <v>52451</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>40027</v>
+        <v>41744</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>65816</v>
+        <v>68399</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1245877539173231</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.09507788092514997</v>
+        <v>0.09915722558855766</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1563353410445465</v>
+        <v>0.1624697129772854</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>122</v>
@@ -1931,19 +1931,19 @@
         <v>104193</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>85557</v>
+        <v>85703</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>127068</v>
+        <v>126293</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1312021268177546</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1077362171794334</v>
+        <v>0.1079195420316046</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1600074463575372</v>
+        <v>0.159032100145681</v>
       </c>
     </row>
     <row r="21">
@@ -1960,19 +1960,19 @@
         <v>67831</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>51238</v>
+        <v>51742</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>88896</v>
+        <v>88359</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1817826076462773</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1373138280194385</v>
+        <v>0.1386636826708108</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2382333190204448</v>
+        <v>0.2367951132181346</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>111</v>
@@ -1981,19 +1981,19 @@
         <v>72817</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>60633</v>
+        <v>60459</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>88021</v>
+        <v>88297</v>
       </c>
       <c r="N21" s="6" t="n">
-        <v>0.1729647297893952</v>
+        <v>0.1729647297893953</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1440244374605051</v>
+        <v>0.1436114397341322</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2090801908435362</v>
+        <v>0.2097339170010602</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>179</v>
@@ -2002,19 +2002,19 @@
         <v>140648</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>121126</v>
+        <v>119101</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>165307</v>
+        <v>166974</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>0.1771080256098312</v>
+        <v>0.1771080256098311</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.152524583793117</v>
+        <v>0.1499748987461557</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2081591346836425</v>
+        <v>0.2102575681423254</v>
       </c>
     </row>
     <row r="22">
@@ -2031,19 +2031,19 @@
         <v>228578</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>203499</v>
+        <v>202415</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>252947</v>
+        <v>249412</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.612570774743127</v>
+        <v>0.6125707747431269</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.54536078408019</v>
+        <v>0.5424562061549431</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.6778797494756352</v>
+        <v>0.6684037211738894</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>355</v>
@@ -2052,19 +2052,19 @@
         <v>257358</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>238420</v>
+        <v>237215</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>275587</v>
+        <v>274752</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.611312030743951</v>
+        <v>0.6113120307439511</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5663279450984455</v>
+        <v>0.5634646635098698</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.6546125564312724</v>
+        <v>0.6526287348371719</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>511</v>
@@ -2073,19 +2073,19 @@
         <v>485936</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>453088</v>
+        <v>453832</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>514933</v>
+        <v>516148</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.6119034824328303</v>
+        <v>0.6119034824328302</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.5705406930718595</v>
+        <v>0.571477786817757</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.6484179221550774</v>
+        <v>0.6499469708866399</v>
       </c>
     </row>
     <row r="23">
@@ -2177,19 +2177,19 @@
         <v>55887</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>45078</v>
+        <v>44954</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>69108</v>
+        <v>68896</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2717394192179749</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2191824572212464</v>
+        <v>0.2185796799529801</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3360232374850964</v>
+        <v>0.3349926103486585</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>80</v>
@@ -2198,19 +2198,19 @@
         <v>39564</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>31733</v>
+        <v>31378</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>48831</v>
+        <v>48421</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.172832116853902</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1386200006125415</v>
+        <v>0.1370702205053924</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2133110261389952</v>
+        <v>0.2115217926633125</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>150</v>
@@ -2219,19 +2219,19 @@
         <v>95451</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>82373</v>
+        <v>82121</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>113768</v>
+        <v>112151</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2196396884637504</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1895455193344936</v>
+        <v>0.1889649608707596</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2617873628560444</v>
+        <v>0.2580662426463863</v>
       </c>
     </row>
     <row r="25">
@@ -2248,19 +2248,19 @@
         <v>5310</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1987</v>
+        <v>1572</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>13328</v>
+        <v>12274</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02581992164526732</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.009663443361987104</v>
+        <v>0.007644963789154173</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.06480412212771058</v>
+        <v>0.05967920947333216</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>14</v>
@@ -2269,19 +2269,19 @@
         <v>6152</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>3688</v>
+        <v>3561</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>10268</v>
+        <v>10482</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.02687426553797136</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.01610932885616711</v>
+        <v>0.01555786565075118</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.04485412615180216</v>
+        <v>0.04579107917230863</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>19</v>
@@ -2290,19 +2290,19 @@
         <v>11462</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>6567</v>
+        <v>6801</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>19681</v>
+        <v>19053</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.02637530058715821</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01511061363560148</v>
+        <v>0.01564856271460886</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.04528780680121007</v>
+        <v>0.04384233917073265</v>
       </c>
     </row>
     <row r="26">
@@ -2319,19 +2319,19 @@
         <v>1701</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>4805</v>
+        <v>5050</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.008268419423216874</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.00238540916847341</v>
+        <v>0.002365719778935325</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.02336272888633943</v>
+        <v>0.02455498903506616</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>10</v>
@@ -2340,19 +2340,19 @@
         <v>4379</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2259</v>
+        <v>2192</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>7853</v>
+        <v>8425</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.01913117475846591</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.009870225009000455</v>
+        <v>0.009573393418968602</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.03430308398603415</v>
+        <v>0.0368035256127817</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>13</v>
@@ -2361,19 +2361,19 @@
         <v>6080</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>3400</v>
+        <v>3453</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>10084</v>
+        <v>10754</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.01399040975849332</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.007823591981656252</v>
+        <v>0.007946318592201551</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.02320277201255658</v>
+        <v>0.02474610299387905</v>
       </c>
     </row>
     <row r="27">
@@ -2390,19 +2390,19 @@
         <v>142767</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>129032</v>
+        <v>129847</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>153803</v>
+        <v>154084</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.6941722397135408</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.6273872720949182</v>
+        <v>0.6313507547314766</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.7478336015066003</v>
+        <v>0.7491992603409564</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>391</v>
@@ -2411,19 +2411,19 @@
         <v>178822</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>169183</v>
+        <v>169570</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>187648</v>
+        <v>186983</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.7811624428496607</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.73905486916927</v>
+        <v>0.7407476930292062</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.8197152302749884</v>
+        <v>0.8168109871792323</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>592</v>
@@ -2432,19 +2432,19 @@
         <v>321588</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>303122</v>
+        <v>306227</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>335275</v>
+        <v>335328</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.739994601190598</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.6975020231572754</v>
+        <v>0.704646082228444</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.7714881061220289</v>
+        <v>0.7716109416568536</v>
       </c>
     </row>
     <row r="28">
@@ -2536,19 +2536,19 @@
         <v>42811</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>33078</v>
+        <v>33226</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>54482</v>
+        <v>55030</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1581456430946459</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1221919324802098</v>
+        <v>0.1227377861992221</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2012572705235084</v>
+        <v>0.2032827126000564</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>57</v>
@@ -2557,19 +2557,19 @@
         <v>33445</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>25779</v>
+        <v>24941</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>42968</v>
+        <v>42800</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.1268039252477624</v>
+        <v>0.1268039252477623</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.09773842674367664</v>
+        <v>0.09456395224680166</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.162912081076013</v>
+        <v>0.1622736224981946</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>117</v>
@@ -2578,19 +2578,19 @@
         <v>76256</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>64052</v>
+        <v>64811</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>91380</v>
+        <v>91062</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1426787616863706</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1198454001822918</v>
+        <v>0.121265516292699</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.170977810896742</v>
+        <v>0.1703817266718831</v>
       </c>
     </row>
     <row r="30">
@@ -2607,19 +2607,19 @@
         <v>30557</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>21685</v>
+        <v>22066</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>40763</v>
+        <v>40552</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1128785942774671</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.08010465590750737</v>
+        <v>0.08151332395155277</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1505810269952722</v>
+        <v>0.1498016388680175</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>71</v>
@@ -2628,19 +2628,19 @@
         <v>36914</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>29026</v>
+        <v>28990</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>47254</v>
+        <v>46352</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1399577231397385</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1100515746087964</v>
+        <v>0.1099150314733763</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1791615891403316</v>
+        <v>0.1757425094702004</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>112</v>
@@ -2649,19 +2649,19 @@
         <v>67471</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>54830</v>
+        <v>54913</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>80199</v>
+        <v>81575</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1262419228862659</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1025900846863932</v>
+        <v>0.1027450010988284</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1500564564180447</v>
+        <v>0.1526315004720662</v>
       </c>
     </row>
     <row r="31">
@@ -2678,19 +2678,19 @@
         <v>34425</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>26428</v>
+        <v>25607</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>44251</v>
+        <v>45342</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>0.1271671185798904</v>
+        <v>0.1271671185798905</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.09762448369235488</v>
+        <v>0.09459438895634864</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1634661621185197</v>
+        <v>0.167493676395968</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>67</v>
@@ -2699,19 +2699,19 @@
         <v>36137</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>27633</v>
+        <v>28009</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>45744</v>
+        <v>46854</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>0.1370119904730593</v>
+        <v>0.1370119904730592</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1047687003190417</v>
+        <v>0.1061954445979331</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.173437489579987</v>
+        <v>0.1776445431571134</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>118</v>
@@ -2720,19 +2720,19 @@
         <v>70562</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>59651</v>
+        <v>56886</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>85266</v>
+        <v>84244</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1320254823363125</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1116097238467399</v>
+        <v>0.1064360769215149</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1595372034986553</v>
+        <v>0.1576256819335725</v>
       </c>
     </row>
     <row r="32">
@@ -2749,19 +2749,19 @@
         <v>162914</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>147945</v>
+        <v>147800</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>176406</v>
+        <v>177219</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.6018086440479965</v>
+        <v>0.6018086440479964</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.5465141418356362</v>
+        <v>0.5459788768007613</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.6516474521388952</v>
+        <v>0.6546514890704923</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>265</v>
@@ -2770,19 +2770,19 @@
         <v>157255</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>144433</v>
+        <v>144762</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>169317</v>
+        <v>170077</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.5962263611394399</v>
+        <v>0.5962263611394397</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.5476118754597776</v>
+        <v>0.5488612421886617</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.6419609415144526</v>
+        <v>0.6448432978411636</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>484</v>
@@ -2791,19 +2791,19 @@
         <v>320169</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>299669</v>
+        <v>298865</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>336347</v>
+        <v>337778</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.5990538330910511</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.5606984901604444</v>
+        <v>0.5591935010175332</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.6293252352196088</v>
+        <v>0.6320029488180554</v>
       </c>
     </row>
     <row r="33">
@@ -2895,19 +2895,19 @@
         <v>51184</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>39483</v>
+        <v>37952</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>70044</v>
+        <v>65838</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.07139931951548685</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.0550775031719606</v>
+        <v>0.05294174965190518</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.09770927715794302</v>
+        <v>0.09184136945868396</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>102</v>
@@ -2916,19 +2916,19 @@
         <v>78031</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>63184</v>
+        <v>64575</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>93828</v>
+        <v>94887</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.1015353698810307</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.0822162925951799</v>
+        <v>0.08402630055826545</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.1220903086128606</v>
+        <v>0.1234677935493256</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>148</v>
@@ -2937,19 +2937,19 @@
         <v>129215</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>110135</v>
+        <v>108486</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>152427</v>
+        <v>150732</v>
       </c>
       <c r="U34" s="6" t="n">
-        <v>0.08699126325959385</v>
+        <v>0.08699126325959383</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.07414605876414422</v>
+        <v>0.0730360076385338</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.1026183558935831</v>
+        <v>0.1014767960300041</v>
       </c>
     </row>
     <row r="35">
@@ -2966,19 +2966,19 @@
         <v>115294</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>95584</v>
+        <v>94825</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>139825</v>
+        <v>137697</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1608304591167187</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1333361144587772</v>
+        <v>0.1322768991025396</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.1950510330483459</v>
+        <v>0.1920818225626225</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>158</v>
@@ -2987,19 +2987,19 @@
         <v>123499</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>105188</v>
+        <v>106221</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>143676</v>
+        <v>142525</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1606984845089925</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1368727399141649</v>
+        <v>0.1382157171578605</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1869528528996749</v>
+        <v>0.1854558673323026</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>259</v>
@@ -3008,19 +3008,19 @@
         <v>238793</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>212299</v>
+        <v>208952</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>268220</v>
+        <v>266652</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1607621774197359</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1429256652918644</v>
+        <v>0.1406724522905984</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1805735892136733</v>
+        <v>0.179517579530959</v>
       </c>
     </row>
     <row r="36">
@@ -3037,19 +3037,19 @@
         <v>174467</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>150301</v>
+        <v>151292</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>203785</v>
+        <v>204480</v>
       </c>
       <c r="G36" s="6" t="n">
-        <v>0.2433742512938496</v>
+        <v>0.2433742512938495</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.2096636967306765</v>
+        <v>0.2110464217334816</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.2842721364450403</v>
+        <v>0.2852419857951937</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>253</v>
@@ -3058,19 +3058,19 @@
         <v>203794</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>183967</v>
+        <v>182048</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>230823</v>
+        <v>228652</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.2651794411193853</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.2393804193892179</v>
+        <v>0.2368838597913162</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.3003506268809731</v>
+        <v>0.2975251255992997</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>405</v>
@@ -3079,19 +3079,19 @@
         <v>378261</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>343696</v>
+        <v>342697</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>412545</v>
+        <v>412796</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.254655931838094</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.2313860457111391</v>
+        <v>0.2307132370810548</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2777370653020504</v>
+        <v>0.2779058260254867</v>
       </c>
     </row>
     <row r="37">
@@ -3108,19 +3108,19 @@
         <v>375922</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>343827</v>
+        <v>345046</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>407645</v>
+        <v>406722</v>
       </c>
       <c r="G37" s="6" t="n">
-        <v>0.5243959700739449</v>
+        <v>0.5243959700739448</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.4796255243626794</v>
+        <v>0.4813260515531498</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.5686488544734448</v>
+        <v>0.5673612326812129</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>442</v>
@@ -3129,19 +3129,19 @@
         <v>363189</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>336889</v>
+        <v>336418</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>386810</v>
+        <v>390190</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.4725867044905914</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.4383649078022649</v>
+        <v>0.4377513091522561</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.5033228220058624</v>
+        <v>0.5077203668705921</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>740</v>
@@ -3150,19 +3150,19 @@
         <v>739111</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>698855</v>
+        <v>697547</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>778271</v>
+        <v>779085</v>
       </c>
       <c r="U37" s="6" t="n">
-        <v>0.4975906274825762</v>
+        <v>0.497590627482576</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.4704892344318851</v>
+        <v>0.4696086512170533</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.5239543936298646</v>
+        <v>0.5245020817741742</v>
       </c>
     </row>
     <row r="38">
@@ -3254,19 +3254,19 @@
         <v>466701</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>436144</v>
+        <v>437512</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>496794</v>
+        <v>496080</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.5847851040851804</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.5464971321184579</v>
+        <v>0.5482106911771558</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.6224928993470307</v>
+        <v>0.6215978128013736</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>618</v>
@@ -3275,19 +3275,19 @@
         <v>490203</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>464334</v>
+        <v>464097</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>514918</v>
+        <v>516968</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>0.590353340266386</v>
+        <v>0.5903533402663861</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.5591984863154573</v>
+        <v>0.55891288020859</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.6201175630318881</v>
+        <v>0.622585803641808</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>1058</v>
@@ -3296,19 +3296,19 @@
         <v>956904</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>918056</v>
+        <v>914745</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>992198</v>
+        <v>995006</v>
       </c>
       <c r="U39" s="6" t="n">
-        <v>0.5876244185900064</v>
+        <v>0.5876244185900062</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.5637681238806033</v>
+        <v>0.5617350921710251</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.6092978379768682</v>
+        <v>0.6110222217451036</v>
       </c>
     </row>
     <row r="40">
@@ -3325,19 +3325,19 @@
         <v>181445</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>157091</v>
+        <v>157989</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>208645</v>
+        <v>206813</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.2273547703666813</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.196837772800508</v>
+        <v>0.197963703253836</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.2614365513844469</v>
+        <v>0.2591403260544352</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>235</v>
@@ -3346,19 +3346,19 @@
         <v>178755</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>157356</v>
+        <v>157148</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>199350</v>
+        <v>199932</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.2152753922183448</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.1895037731876492</v>
+        <v>0.1892542314708468</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.2400772994004534</v>
+        <v>0.2407782765240306</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>414</v>
@@ -3367,19 +3367,19 @@
         <v>360201</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>327489</v>
+        <v>328442</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>393072</v>
+        <v>392876</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.2211953416948855</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.2011076382410977</v>
+        <v>0.2016927002561398</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.2413810676612126</v>
+        <v>0.2412607864778979</v>
       </c>
     </row>
     <row r="41">
@@ -3396,19 +3396,19 @@
         <v>101523</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>83012</v>
+        <v>83512</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>122364</v>
+        <v>122875</v>
       </c>
       <c r="G41" s="6" t="n">
-        <v>0.1272098359871283</v>
+        <v>0.1272098359871282</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.1040162280054051</v>
+        <v>0.1046420063566795</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.1533245162739563</v>
+        <v>0.1539647263097613</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>141</v>
@@ -3417,19 +3417,19 @@
         <v>106421</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>88666</v>
+        <v>89675</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>122711</v>
+        <v>123610</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.1281629381731519</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.1067805799051137</v>
+        <v>0.1079955022849607</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.147780977088626</v>
+        <v>0.1488639301832577</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>240</v>
@@ -3438,19 +3438,19 @@
         <v>207943</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>184513</v>
+        <v>183955</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>234766</v>
+        <v>235306</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.1276958349234687</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.1133073944074146</v>
+        <v>0.1129645141169557</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.1441672432559747</v>
+        <v>0.1444991024091807</v>
       </c>
     </row>
     <row r="42">
@@ -3467,19 +3467,19 @@
         <v>48403</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>34064</v>
+        <v>35483</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>63856</v>
+        <v>64801</v>
       </c>
       <c r="G42" s="6" t="n">
-        <v>0.0606502895610101</v>
+        <v>0.06065028956101009</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.04268281269452995</v>
+        <v>0.04446121286306831</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.08001229558824051</v>
+        <v>0.08119682829052258</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>67</v>
@@ -3488,19 +3488,19 @@
         <v>54976</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>42366</v>
+        <v>41594</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>69910</v>
+        <v>68826</v>
       </c>
       <c r="N42" s="6" t="n">
-        <v>0.06620832934211728</v>
+        <v>0.06620832934211726</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.05102197902841452</v>
+        <v>0.05009194375293841</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.08419323874672625</v>
+        <v>0.082887710382948</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>111</v>
@@ -3509,19 +3509,19 @@
         <v>103380</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>85014</v>
+        <v>84058</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>123501</v>
+        <v>124115</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.06348440479163958</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.05220643821353884</v>
+        <v>0.05161921941001007</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.07584084758627527</v>
+        <v>0.07621769086206956</v>
       </c>
     </row>
     <row r="43">
@@ -3613,19 +3613,19 @@
         <v>689718</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>641480</v>
+        <v>644108</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>742027</v>
+        <v>742537</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.1953909270213226</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.1817253888973226</v>
+        <v>0.1824698705452377</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.2102095206375426</v>
+        <v>0.2103538249578776</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>984</v>
@@ -3634,19 +3634,19 @@
         <v>726985</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>685628</v>
+        <v>689977</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>770896</v>
+        <v>772778</v>
       </c>
       <c r="N44" s="6" t="n">
-        <v>0.1948254148551985</v>
+        <v>0.1948254148551986</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.1837423436535487</v>
+        <v>0.1849077269659793</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.2065932569663088</v>
+        <v>0.2070976331122404</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>1672</v>
@@ -3655,19 +3655,19 @@
         <v>1416703</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>1347941</v>
+        <v>1353430</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>1481311</v>
+        <v>1483861</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.1951003236131261</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.1856308049200144</v>
+        <v>0.1863867244555238</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.203997735506882</v>
+        <v>0.204348912987806</v>
       </c>
     </row>
     <row r="45">
@@ -3684,19 +3684,19 @@
         <v>489252</v>
       </c>
       <c r="E45" s="5" t="n">
-        <v>448506</v>
+        <v>445218</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>536607</v>
+        <v>532677</v>
       </c>
       <c r="G45" s="6" t="n">
         <v>0.1386006606682913</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.1270577018496339</v>
+        <v>0.1261260947731707</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.1520158729616611</v>
+        <v>0.1509025853666554</v>
       </c>
       <c r="J45" s="5" t="n">
         <v>749</v>
@@ -3705,19 +3705,19 @@
         <v>529865</v>
       </c>
       <c r="L45" s="5" t="n">
-        <v>493307</v>
+        <v>491332</v>
       </c>
       <c r="M45" s="5" t="n">
-        <v>566834</v>
+        <v>568406</v>
       </c>
       <c r="N45" s="6" t="n">
         <v>0.1419990384957626</v>
       </c>
       <c r="O45" s="6" t="n">
-        <v>0.1322018707589703</v>
+        <v>0.1316725619658855</v>
       </c>
       <c r="P45" s="6" t="n">
-        <v>0.1519065353083944</v>
+        <v>0.1523278768098675</v>
       </c>
       <c r="Q45" s="5" t="n">
         <v>1223</v>
@@ -3726,19 +3726,19 @@
         <v>1019117</v>
       </c>
       <c r="S45" s="5" t="n">
-        <v>960910</v>
+        <v>959828</v>
       </c>
       <c r="T45" s="5" t="n">
-        <v>1073650</v>
+        <v>1077509</v>
       </c>
       <c r="U45" s="6" t="n">
         <v>0.1403470071452758</v>
       </c>
       <c r="V45" s="6" t="n">
-        <v>0.1323310434460167</v>
+        <v>0.1321820718175893</v>
       </c>
       <c r="W45" s="6" t="n">
-        <v>0.1478569471749576</v>
+        <v>0.1483884857355007</v>
       </c>
     </row>
     <row r="46">
@@ -3755,19 +3755,19 @@
         <v>682661</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>628409</v>
+        <v>633790</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>735112</v>
+        <v>735514</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.1933915891097556</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.1780223951410737</v>
+        <v>0.1795468816812927</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.2082504921717236</v>
+        <v>0.208364387450877</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>951</v>
@@ -3776,19 +3776,19 @@
         <v>695413</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>654283</v>
+        <v>657367</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>741372</v>
+        <v>737602</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.186364467927738</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.1753420116043351</v>
+        <v>0.176168381780002</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.1986812355567153</v>
+        <v>0.1976706531488609</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>1573</v>
@@ -3797,19 +3797,19 @@
         <v>1378074</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>1310503</v>
+        <v>1311976</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>1447357</v>
+        <v>1450309</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.1897805167268208</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.1804750627258621</v>
+        <v>0.1806779361699655</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.1993218683386014</v>
+        <v>0.1997283772989887</v>
       </c>
     </row>
     <row r="47">
@@ -3826,19 +3826,19 @@
         <v>1668310</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>1601842</v>
+        <v>1595570</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>1735404</v>
+        <v>1727436</v>
       </c>
       <c r="G47" s="6" t="n">
-        <v>0.4726168232006306</v>
+        <v>0.4726168232006305</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.4537871128989586</v>
+        <v>0.4520105034784295</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.4916239939017573</v>
+        <v>0.4893669533795378</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>2676</v>
@@ -3847,19 +3847,19 @@
         <v>1779205</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>1729031</v>
+        <v>1731510</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>1837223</v>
+        <v>1841606</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.476811078721301</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.4633650401572549</v>
+        <v>0.4640293516200107</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.4923595628550627</v>
+        <v>0.4935339434881889</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>4266</v>
@@ -3868,19 +3868,19 @@
         <v>3447514</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>3353308</v>
+        <v>3362296</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>3526655</v>
+        <v>3532394</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.4747721525147774</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.4617985795092966</v>
+        <v>0.4630363513208969</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.4856709364442413</v>
+        <v>0.4864613602672209</v>
       </c>
     </row>
     <row r="48">
